--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3471.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3471.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.008302313242224</v>
+        <v>0.8655728697776794</v>
       </c>
       <c r="B1">
-        <v>1.285699182841488</v>
+        <v>1.345322847366333</v>
       </c>
       <c r="C1">
-        <v>1.897061100991818</v>
+        <v>4.710809230804443</v>
       </c>
       <c r="D1">
-        <v>6.672269203685506</v>
+        <v>3.526508808135986</v>
       </c>
       <c r="E1">
-        <v>4.762028237274274</v>
+        <v>0.4903959929943085</v>
       </c>
     </row>
   </sheetData>
